--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2386101.761952821</v>
+        <v>-2388962.575745114</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13.36832671292666</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.72100737961711</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>90.77006459979269</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>118.7743544544665</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>65.48143831757183</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>138.9339082820138</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>73.85263908480911</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>109.8280576942313</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>143.6532611603614</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>194.7799829046282</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.59734213051105</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.6957491138049</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>165.5764952663595</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>303.0051123819519</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411815016</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>45.80948879189106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>56.57988308896127</v>
+        <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
         <v>93.83392671696369</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906617</v>
+        <v>23.79630926906619</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.6642101214042</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>88.40179218214256</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
-        <v>196.178826391195</v>
+        <v>177.8896004186836</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226517</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>101.1527559011482</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,10 +2138,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>166.6849833227418</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>178.9060413124614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696.7909294996621</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="C2" t="n">
-        <v>430.4132729324841</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163966</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1034.935310531664</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.501254366792</v>
       </c>
       <c r="U2" t="n">
-        <v>963.16858606684</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="V2" t="n">
-        <v>963.16858606684</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="W2" t="n">
-        <v>963.16858606684</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="X2" t="n">
-        <v>696.7909294996621</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="Y2" t="n">
-        <v>696.7909294996621</v>
+        <v>300.4385797407429</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482.0708058524402</v>
+        <v>87.2399773875668</v>
       </c>
       <c r="C3" t="n">
-        <v>362.0967104438881</v>
+        <v>87.2399773875668</v>
       </c>
       <c r="D3" t="n">
-        <v>362.0967104438881</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,19 +4410,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V3" t="n">
-        <v>858.0464416374622</v>
+        <v>671.0671133781216</v>
       </c>
       <c r="W3" t="n">
-        <v>858.0464416374622</v>
+        <v>671.0671133781216</v>
       </c>
       <c r="X3" t="n">
-        <v>858.0464416374622</v>
+        <v>463.2156131725887</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2861428725082</v>
+        <v>255.4553144076348</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.0922035111669</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="C4" t="n">
-        <v>338.15602058326</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="D4" t="n">
-        <v>338.15602058326</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2429270008669</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>773.4698600783448</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="W4" t="n">
-        <v>507.0922035111669</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="X4" t="n">
-        <v>507.0922035111669</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.0922035111669</v>
+        <v>308.3243389909741</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300.4385797407429</v>
+        <v>690.2330699327778</v>
       </c>
       <c r="C5" t="n">
-        <v>300.4385797407429</v>
+        <v>690.2330699327778</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4385797407429</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471528</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>690.2330699327778</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>690.2330699327778</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>690.2330699327778</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>690.2330699327778</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>620.9078372423276</v>
       </c>
       <c r="C6" t="n">
         <v>475.8035330399423</v>
@@ -4632,19 +4632,19 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K6" t="n">
         <v>95.78113116957465</v>
@@ -4665,31 +4665,31 @@
         <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V6" t="n">
-        <v>858.1080625266021</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W6" t="n">
-        <v>858.1080625266021</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="X6" t="n">
-        <v>650.2565623210693</v>
+        <v>828.6681360072814</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2565623210693</v>
+        <v>620.9078372423276</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.9463869104205</v>
+        <v>488.0630263227562</v>
       </c>
       <c r="C7" t="n">
-        <v>169.0102039825136</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D7" t="n">
         <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1039.100628965105</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>832.3135943756158</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>832.3135943756158</v>
+        <v>716.0525772207735</v>
       </c>
       <c r="U7" t="n">
-        <v>832.3135943756158</v>
+        <v>716.0525772207735</v>
       </c>
       <c r="V7" t="n">
-        <v>832.3135943756158</v>
+        <v>716.0525772207735</v>
       </c>
       <c r="W7" t="n">
-        <v>565.9359378084379</v>
+        <v>716.0525772207735</v>
       </c>
       <c r="X7" t="n">
-        <v>337.9463869104205</v>
+        <v>488.0630263227562</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.9463869104205</v>
+        <v>488.0630263227562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1519.482310364738</v>
+        <v>1402.393055580724</v>
       </c>
       <c r="C8" t="n">
-        <v>1519.482310364738</v>
+        <v>1402.393055580724</v>
       </c>
       <c r="D8" t="n">
-        <v>1161.216611757987</v>
+        <v>1235.144070463189</v>
       </c>
       <c r="E8" t="n">
-        <v>775.428359159743</v>
+        <v>849.3558178649452</v>
       </c>
       <c r="F8" t="n">
-        <v>364.4424543701354</v>
+        <v>438.3699130753376</v>
       </c>
       <c r="G8" t="n">
-        <v>352.5821724745965</v>
+        <v>426.5096311797986</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181679</v>
+        <v>120.443861097019</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181679</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.4989367229155</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677488</v>
+        <v>397.0601716677479</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937567</v>
+        <v>719.9935330937553</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.988557721574</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999418</v>
+        <v>1512.924098999416</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830553</v>
+        <v>1879.125171830551</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271718</v>
+        <v>2157.168314271717</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257578</v>
+        <v>2317.794388257577</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.82011959084</v>
+        <v>2196.656028259774</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.82011959084</v>
+        <v>1987.052678512934</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.82011959084</v>
+        <v>1733.455942924295</v>
       </c>
       <c r="V8" t="n">
-        <v>2279.54790868994</v>
+        <v>1402.393055580724</v>
       </c>
       <c r="W8" t="n">
-        <v>2279.54790868994</v>
+        <v>1402.393055580724</v>
       </c>
       <c r="X8" t="n">
-        <v>1906.082150428859</v>
+        <v>1402.393055580724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1906.082150428859</v>
+        <v>1402.393055580724</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692.4082165547759</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>517.9551872736489</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>369.0207776123976</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>369.0207776123976</v>
+        <v>448.6756259307509</v>
       </c>
       <c r="F9" t="n">
-        <v>222.4862196392826</v>
+        <v>302.1410679576359</v>
       </c>
       <c r="G9" t="n">
         <v>165.3348225797258</v>
@@ -4878,55 +4878,55 @@
         <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181679</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067838</v>
+        <v>99.15933091977902</v>
       </c>
       <c r="K9" t="n">
-        <v>392.1194303282864</v>
+        <v>402.9718154420755</v>
       </c>
       <c r="L9" t="n">
-        <v>722.6274447501823</v>
+        <v>675.3658557344893</v>
       </c>
       <c r="M9" t="n">
-        <v>1059.855309946846</v>
+        <v>1012.593720931152</v>
       </c>
       <c r="N9" t="n">
-        <v>1420.417238198181</v>
+        <v>1373.155649182488</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.057717796914</v>
+        <v>1680.779576843375</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.61997410603</v>
+        <v>2223.619974106029</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160694</v>
+        <v>2188.151005160693</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661026</v>
+        <v>2188.151005160693</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505275</v>
+        <v>1960.054004004942</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273532</v>
+        <v>1724.901895773199</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.235352545331</v>
+        <v>1470.664539044998</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.383852339798</v>
+        <v>1262.813038839465</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.623553574844</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.8514125759498</v>
+        <v>681.5566729980279</v>
       </c>
       <c r="C10" t="n">
-        <v>601.9152296480429</v>
+        <v>512.620490070121</v>
       </c>
       <c r="D10" t="n">
-        <v>451.7985902357071</v>
+        <v>362.5038506577853</v>
       </c>
       <c r="E10" t="n">
-        <v>303.885496653314</v>
+        <v>214.5907570753922</v>
       </c>
       <c r="F10" t="n">
-        <v>303.885496653314</v>
+        <v>214.5907570753922</v>
       </c>
       <c r="G10" t="n">
-        <v>135.8111419697386</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="H10" t="n">
-        <v>135.8111419697386</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181679</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909527</v>
+        <v>65.89540801909524</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736014</v>
+        <v>227.5779039736013</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632609</v>
+        <v>490.0022680632608</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794041</v>
+        <v>777.0810884794039</v>
       </c>
       <c r="N10" t="n">
         <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257114</v>
+        <v>1310.630639257113</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325116</v>
+        <v>1499.198894325115</v>
       </c>
       <c r="Q10" t="n">
         <v>1546.318699718229</v>
@@ -4987,25 +4987,25 @@
         <v>1439.783439600084</v>
       </c>
       <c r="S10" t="n">
-        <v>1241.623008901907</v>
+        <v>1260.096974530707</v>
       </c>
       <c r="T10" t="n">
-        <v>1241.623008901907</v>
+        <v>1260.096974530707</v>
       </c>
       <c r="U10" t="n">
-        <v>952.4998774061895</v>
+        <v>970.9738430349885</v>
       </c>
       <c r="V10" t="n">
-        <v>952.4998774061895</v>
+        <v>970.9738430349885</v>
       </c>
       <c r="W10" t="n">
-        <v>952.4998774061895</v>
+        <v>681.5566729980279</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4998774061895</v>
+        <v>681.5566729980279</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.4998774061895</v>
+        <v>681.5566729980279</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
         <v>484.8112968429803</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,49 +5744,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.063419261731</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1252.64624922477</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.656698326753</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.8641191832229</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,43 +7327,43 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,22 +8058,22 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>97.32166909127238</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127191</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.0530405058524</v>
       </c>
       <c r="L9" t="n">
-        <v>58.70098396917388</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>270.7237898362077</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864786</v>
+        <v>27.38164655864787</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>341.3147149077563</v>
+        <v>70.77656671555756</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.0466858196052</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929556061</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>66.09406519747967</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>13.1469968591955</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>33850.42817886436</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40357.32998450033</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="E2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40357.32998450033</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40357.32998450028</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512975</v>
+        <v>331437.5228512973</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424119</v>
+        <v>563905.7843424121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201185</v>
+        <v>99845.14336201182</v>
       </c>
       <c r="M3" t="n">
         <v>147342.6769569559</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.429358550048033e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>7.605649443576112e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>152658.8108876534</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744299</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744264</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744306</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="N4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="O4" t="n">
         <v>16718.11565483777</v>
       </c>
-      <c r="O4" t="n">
-        <v>16718.11565483775</v>
-      </c>
       <c r="P4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483777</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543577</v>
+        <v>88290.79546543575</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-874724.5107218464</v>
+        <v>-875084.5937375639</v>
       </c>
       <c r="C6" t="n">
         <v>-269644.2817534411</v>
@@ -26528,25 +26528,25 @@
         <v>-531335.0407111724</v>
       </c>
       <c r="E6" t="n">
-        <v>-633398.2405735629</v>
+        <v>-633432.9784989988</v>
       </c>
       <c r="F6" t="n">
-        <v>-69492.45623115107</v>
+        <v>-69527.1941565868</v>
       </c>
       <c r="G6" t="n">
-        <v>-69492.45623115107</v>
+        <v>-69527.19415658679</v>
       </c>
       <c r="H6" t="n">
-        <v>-69492.4562311511</v>
+        <v>-69527.19415658679</v>
       </c>
       <c r="I6" t="n">
-        <v>-69492.45623115101</v>
+        <v>-69527.19415658689</v>
       </c>
       <c r="J6" t="n">
-        <v>-138491.6106502652</v>
+        <v>-138526.3485757008</v>
       </c>
       <c r="K6" t="n">
-        <v>-69492.4562311511</v>
+        <v>-69527.19415658679</v>
       </c>
       <c r="L6" t="n">
         <v>-178675.2863775508</v>
@@ -26555,13 +26555,13 @@
         <v>-226172.8199724949</v>
       </c>
       <c r="N6" t="n">
-        <v>-78830.14301553891</v>
+        <v>-78830.14301553904</v>
       </c>
       <c r="O6" t="n">
-        <v>-78830.14301553907</v>
+        <v>-78830.14301553898</v>
       </c>
       <c r="P6" t="n">
-        <v>-78830.14301553898</v>
+        <v>-78830.14301553892</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896794</v>
+        <v>885.8132865896793</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977099</v>
+        <v>581.4550298977097</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>8.44124770082999e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.786698187560041e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>9.50706180447014e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202011</v>
+        <v>271.758272820201</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519944</v>
+        <v>482.1622137519945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962037</v>
+        <v>317.7411498962036</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019385</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962037</v>
+        <v>317.7411498962036</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019385</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>8.44124770082999e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962037</v>
+        <v>317.7411498962036</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019385</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>283.9064749051254</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>160.3781032784898</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.93414453384922</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>81.96362724706692</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>9.681564736198595</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>178.2850042390189</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.2888308038641</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917693</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707558</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>217.9242007759036</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.05523782795433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,7 +27752,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>38.02060424479706</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>111.9072607531529</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>92.51859676576092</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>189.1065463543235</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815016</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>281.9427696782438</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78.85829983516969</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.01848565590012</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>19.01146385923606</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.28922597251136</v>
       </c>
       <c r="T10" t="n">
         <v>221.1204706627545</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31525,22 +31525,22 @@
         <v>302.2403836490083</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528922</v>
+        <v>452.9799873528921</v>
       </c>
       <c r="L8" t="n">
-        <v>561.961729541712</v>
+        <v>561.9617295417119</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483016</v>
+        <v>625.2907025483015</v>
       </c>
       <c r="N8" t="n">
-        <v>635.408559836836</v>
+        <v>635.4085598368359</v>
       </c>
       <c r="O8" t="n">
         <v>599.9982849884898</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867503</v>
+        <v>512.0846547867502</v>
       </c>
       <c r="Q8" t="n">
         <v>384.5542494561255</v>
@@ -31549,7 +31549,7 @@
         <v>223.6923371406591</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849176</v>
+        <v>81.14761916849174</v>
       </c>
       <c r="T8" t="n">
         <v>15.58853331475908</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079688</v>
+        <v>1.905334239079687</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953278</v>
+        <v>18.40151751953277</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234891</v>
+        <v>65.60032358234889</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474367</v>
+        <v>180.0123019474366</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657758</v>
+        <v>307.6696959657757</v>
       </c>
       <c r="L9" t="n">
         <v>413.6998750247366</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913752</v>
+        <v>482.7682411913751</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139755</v>
+        <v>495.5456800139754</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059466</v>
+        <v>453.3274845059465</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730327</v>
+        <v>363.8352723730326</v>
       </c>
       <c r="Q9" t="n">
         <v>243.2142442726984</v>
@@ -31628,13 +31628,13 @@
         <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.3907478179933</v>
+        <v>35.39074781799329</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150142</v>
+        <v>7.679834060150141</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815585</v>
+        <v>0.1253509367815584</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719094</v>
+        <v>1.597368221719093</v>
       </c>
       <c r="H10" t="n">
         <v>14.20205564401159</v>
@@ -31683,13 +31683,13 @@
         <v>112.9339332755399</v>
       </c>
       <c r="K10" t="n">
-        <v>185.585144305182</v>
+        <v>185.5851443051819</v>
       </c>
       <c r="L10" t="n">
         <v>237.4850899817642</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191121</v>
+        <v>250.394729519112</v>
       </c>
       <c r="N10" t="n">
         <v>244.4409025108866</v>
@@ -31704,16 +31704,16 @@
         <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020578</v>
+        <v>71.82348386020577</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577729</v>
+        <v>27.83777164577728</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527035</v>
+        <v>6.825118765527034</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013249</v>
+        <v>0.08712917573013247</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,16 +32081,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>338.192057627922</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877683</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>232.8901363079116</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717247</v>
+        <v>326.1953145717246</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210289</v>
+        <v>394.9444693210288</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402451</v>
+        <v>405.995496240245</v>
       </c>
       <c r="O8" t="n">
         <v>369.900073566803</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314808</v>
+        <v>280.8516590314807</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816761</v>
+        <v>162.248559581676</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526982</v>
+        <v>8.106799326526954</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.2657106211788</v>
+        <v>53.17467528076995</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914168</v>
+        <v>306.8812974972691</v>
       </c>
       <c r="L9" t="n">
-        <v>333.8464792140363</v>
+        <v>275.1454952448624</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693569</v>
+        <v>340.6342072693568</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306422</v>
+        <v>364.2039679306421</v>
       </c>
       <c r="O9" t="n">
-        <v>581.4550298977099</v>
+        <v>310.7312400615021</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587025</v>
+        <v>548.3236335986396</v>
       </c>
       <c r="Q9" t="n">
         <v>103.2324701866769</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886715</v>
+        <v>19.57475315886714</v>
       </c>
       <c r="K10" t="n">
         <v>163.3156524792991</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420804</v>
+        <v>265.0751152420803</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809527</v>
+        <v>289.9786064809526</v>
       </c>
       <c r="N10" t="n">
         <v>288.5730748901152</v>
@@ -35349,7 +35349,7 @@
         <v>190.4729849171736</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.5957630233472</v>
+        <v>47.59576302334717</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059037</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
